--- a/各地城市经纬度.xlsx
+++ b/各地城市经纬度.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbao/Desktop/测试/kmeans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbao/Desktop/kmeans算法/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB9C661F-C0BC-374D-B8BF-4FFBF3BB8D4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921D55FA-4CD7-FA48-B43C-C2C9D5171DA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1860" windowWidth="28240" windowHeight="17440" xr2:uid="{211E0ED5-3D1D-6A40-AAA5-B6C14D672818}"/>
+    <workbookView xWindow="26000" yWindow="2760" windowWidth="12960" windowHeight="17440" xr2:uid="{211E0ED5-3D1D-6A40-AAA5-B6C14D672818}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,7 +385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5D3C28-AB6B-0F47-A02F-6431ACBD7CCB}">
   <dimension ref="A1:B294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
       <selection activeCell="B294" sqref="A1:B294"/>
     </sheetView>
   </sheetViews>
